--- a/biology/Médecine/Myxovirus_influenzae/Myxovirus_influenzae.xlsx
+++ b/biology/Médecine/Myxovirus_influenzae/Myxovirus_influenzae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Myxovirus influenzae est un genre de virus obsolète depuis le siècle dernier et correspondant à la famille des Orthomyxoviridae depuis la version 2018b de l'ICTV[1]. Ce taxon regroupait des virus à ARN monocaténaire de polarité négative et à génome segmenté parmi lesquels on trouvait notamment les virus de la grippe.
-La taxonomie de la famille des Orthomyxoviridae peut être résumée par l'arborescence suivante[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Myxovirus influenzae est un genre de virus obsolète depuis le siècle dernier et correspondant à la famille des Orthomyxoviridae depuis la version 2018b de l'ICTV. Ce taxon regroupait des virus à ARN monocaténaire de polarité négative et à génome segmenté parmi lesquels on trouvait notamment les virus de la grippe.
+La taxonomie de la famille des Orthomyxoviridae peut être résumée par l'arborescence suivante :
 Famille : Orthomyxoviridae
 Genre : Alphainfluenzavirus
 Espèce : virus de la grippe A
